--- a/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.004_scores.xlsx
@@ -43,30 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -91,100 +91,100 @@
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,31 +629,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L3">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.797945205479452</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5396825396825397</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.814621409921671</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5294117647058824</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8046875</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5254237288135594</v>
+        <v>0.5026455026455027</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.795774647887324</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5174418604651163</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C11">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.7875</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4832214765100671</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3777777777777778</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C14">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
@@ -1211,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1447721179624665</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,28 +1311,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0134964150147617</v>
+        <v>0.01264755480607083</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>0.19</v>
+      </c>
+      <c r="F17">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2342</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E17">
-        <v>0.2</v>
-      </c>
-      <c r="F17">
-        <v>0.8</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2339</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K17">
         <v>0.75</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.009342783505154639</v>
+        <v>0.01160167579761521</v>
       </c>
       <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>0.9</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3067</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="L18">
         <v>29</v>
       </c>
-      <c r="D18">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <v>0.09</v>
-      </c>
-      <c r="F18">
-        <v>0.91</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3075</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
       <c r="M18">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,19 +1411,19 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005828638041577618</v>
+        <v>0.005055415127357573</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>48</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="F19">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1432,66 +1432,42 @@
         <v>5117</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K19">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
-      <c r="M19">
-        <v>46</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.005827974276527331</v>
-      </c>
-      <c r="C20">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>49</v>
-      </c>
-      <c r="E20">
-        <v>0.41</v>
-      </c>
-      <c r="F20">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>4947</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1503,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6529411764705882</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1555,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1581,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5898305084745763</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1607,47 +1583,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
+        <v>56</v>
+      </c>
+      <c r="M25">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>38</v>
-      </c>
-      <c r="M25">
-        <v>38</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1659,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1685,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,85 +1713,111 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L30">
+        <v>43</v>
+      </c>
+      <c r="M30">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>46</v>
-      </c>
-      <c r="M30">
-        <v>46</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.02847571189279732</v>
+        <v>0.02921535893155259</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32">
+        <v>0.006499535747446611</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>48</v>
+      </c>
+      <c r="N32">
+        <v>0.58</v>
+      </c>
+      <c r="O32">
+        <v>0.42</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K32">
-        <v>0.00974878140232471</v>
-      </c>
-      <c r="L32">
+      <c r="K33">
+        <v>0.005229283990345938</v>
+      </c>
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>2641</v>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="N33">
+        <v>0.52</v>
+      </c>
+      <c r="O33">
+        <v>0.48</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4946</v>
       </c>
     </row>
   </sheetData>
